--- a/ocms/src/test/resources/TestData/AgentSkillAssignmentNewData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSkillAssignmentNewData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14052" windowHeight="5916" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Invalid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
   <si>
     <t>Avaya Login ID</t>
   </si>
@@ -119,202 +115,238 @@
     <t>Supervisor</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Voice,Email,SMS,TextChat,VideoChat,AudioChat,Fax,Faxout,FaxInternational</t>
+  </si>
+  <si>
+    <t>Agent + Supervisor</t>
+  </si>
+  <si>
+    <t>Manual-In</t>
+  </si>
+  <si>
+    <t>hafagag</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Skill Type</t>
+  </si>
+  <si>
+    <t>Skill Name</t>
+  </si>
+  <si>
+    <t>Skill Level</t>
+  </si>
+  <si>
+    <t>MarkJucker</t>
+  </si>
+  <si>
+    <t>Berg</t>
+  </si>
+  <si>
+    <t>Voice Skills</t>
+  </si>
+  <si>
+    <t>VoiceSkill6 &lt;49006&gt;</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>AgentList</t>
+  </si>
+  <si>
+    <t>MultipleSkills</t>
+  </si>
+  <si>
+    <t>MultipleSkillLevels</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>SkillName-Level</t>
+  </si>
+  <si>
+    <t>VoiceSkill6-4,</t>
+  </si>
+  <si>
+    <t>MultiSkillName-Level</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>88888</t>
+  </si>
+  <si>
+    <t>DSTASceince-3,DGH-4,VoiceSkill6-4</t>
+  </si>
+  <si>
+    <t>Text Chat Skills</t>
+  </si>
+  <si>
+    <t>Audio Chat Skills</t>
+  </si>
+  <si>
+    <t>Video Chat Skills</t>
+  </si>
+  <si>
+    <t>Fax Skills</t>
+  </si>
+  <si>
+    <t>Email Skills</t>
+  </si>
+  <si>
+    <t>SMS Skills</t>
+  </si>
+  <si>
+    <t>AudioSkill-1 &lt;49051&gt;</t>
+  </si>
+  <si>
+    <t>VideoSkill2 &lt;49018&gt;</t>
+  </si>
+  <si>
+    <t>FaxSkill-1 &lt;49012&gt;</t>
+  </si>
+  <si>
+    <t>SmsSkill1 &lt;49019&gt;</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CHAT &lt;49001&gt;,ChatbotSkill2 &lt;49029&gt;</t>
+  </si>
+  <si>
+    <t>VideoSkill1 &lt;49017&gt;,VideoSkill1 &lt;49040&gt;</t>
+  </si>
+  <si>
+    <t>EmailSkill8 &lt;49008&gt;,EmailSkill10 &lt;49010&gt;</t>
+  </si>
+  <si>
+    <t>SmsSkill1 &lt;49019&gt;,SmsSkill2 &lt;49020&gt;</t>
+  </si>
+  <si>
+    <t>AudioSkill-1 &lt;49051&gt;,</t>
+  </si>
+  <si>
+    <t>FaxSkill-1 &lt;49012&gt;,</t>
+  </si>
+  <si>
+    <t>ClearSearch</t>
+  </si>
+  <si>
+    <t>VoiceSkill1</t>
+  </si>
+  <si>
+    <t>VoiceSkill5</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>ChatbotAgentSkill &lt;49035&gt;</t>
+  </si>
+  <si>
+    <t>EmailSkill8 &lt;49008&gt;</t>
+  </si>
+  <si>
+    <t>VoiceSkill1 &lt;49000&gt;,VoiceSkill5&lt;49005&gt;</t>
+  </si>
+  <si>
+    <t>SmsSkill1 &lt;49019&gt;,</t>
+  </si>
+  <si>
+    <t>Aravinda ET</t>
+  </si>
+  <si>
     <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>testChatTemplate</t>
-  </si>
-  <si>
-    <t>Voice,Email,SMS,TextChat,VideoChat,AudioChat,Fax,Faxout,FaxInternational</t>
-  </si>
-  <si>
-    <t>Agent + Supervisor</t>
-  </si>
-  <si>
-    <t>Manual-In</t>
-  </si>
-  <si>
-    <t>hafagag</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Skill Type</t>
-  </si>
-  <si>
-    <t>Skill Name</t>
-  </si>
-  <si>
-    <t>Skill Level</t>
-  </si>
-  <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
-    <t>MarkJucker</t>
-  </si>
-  <si>
-    <t>Berg</t>
-  </si>
-  <si>
-    <t>Voice Skills</t>
-  </si>
-  <si>
-    <t>VoiceSkill6 &lt;49006&gt;</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>TeamName</t>
-  </si>
-  <si>
-    <t>AgentList</t>
+    <t>EveningGreeting</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50093</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50094</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50095</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50096</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50097</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50098</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Palak Garg - 50099</t>
   </si>
   <si>
     <t>ProductQA</t>
   </si>
   <si>
-    <t>MultipleSkills</t>
-  </si>
-  <si>
-    <t>DSTASceince &lt;40061&gt;,DGH &lt;49300&gt;</t>
-  </si>
-  <si>
-    <t>MultipleSkillLevels</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>SkillName-Level</t>
-  </si>
-  <si>
-    <t>VoiceSkill6-4,</t>
-  </si>
-  <si>
-    <t>MultiSkillName-Level</t>
-  </si>
-  <si>
-    <t>Whatsapp</t>
-  </si>
-  <si>
-    <t>88888</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,shiva Mahal - 72882</t>
-  </si>
-  <si>
-    <t>DSTASceince-3,DGH-4,VoiceSkill6-4</t>
-  </si>
-  <si>
-    <t>Text Chat Skills</t>
-  </si>
-  <si>
-    <t>Audio Chat Skills</t>
-  </si>
-  <si>
-    <t>Video Chat Skills</t>
-  </si>
-  <si>
-    <t>Fax Skills</t>
-  </si>
-  <si>
-    <t>Email Skills</t>
-  </si>
-  <si>
-    <t>SMS Skills</t>
-  </si>
-  <si>
-    <t>ChatBotAgentCM &lt;49035&gt;</t>
-  </si>
-  <si>
-    <t>AudioSkill-1 &lt;49051&gt;</t>
-  </si>
-  <si>
-    <t>VideoSkill2 &lt;49018&gt;</t>
-  </si>
-  <si>
-    <t>FaxSkill-1 &lt;49012&gt;</t>
-  </si>
-  <si>
-    <t>email_skill077 &lt;31077&gt;</t>
-  </si>
-  <si>
-    <t>SmsSkill1 &lt;49019&gt;</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CHAT &lt;49001&gt;,ChatbotSkill2 &lt;49029&gt;</t>
-  </si>
-  <si>
-    <t>VideoSkill1 &lt;49017&gt;,VideoSkill1 &lt;49040&gt;</t>
-  </si>
-  <si>
-    <t>EmailSkill8 &lt;49008&gt;,EmailSkill10 &lt;49010&gt;</t>
-  </si>
-  <si>
-    <t>SmsSkill1 &lt;49019&gt;,SmsSkill2 &lt;49020&gt;</t>
-  </si>
-  <si>
-    <t>AudioSkill-1 &lt;49051&gt;,</t>
-  </si>
-  <si>
-    <t>FaxSkill-1 &lt;49012&gt;,</t>
-  </si>
-  <si>
-    <t>ClearSearch</t>
-  </si>
-  <si>
-    <t>VoiceSkill1</t>
-  </si>
-  <si>
-    <t>VoiceSkill5</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Pari P - 609,Santosh K - 605</t>
-  </si>
-  <si>
-    <t>DragAndDrop</t>
-  </si>
-  <si>
-    <t>Harry Potter - 9182,Big Bang - 6510</t>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Aravinda ET - 602,User25 MNS5- 12322121</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1213</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1214</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1215</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1216</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1217</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1218</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A- 1219</t>
+  </si>
+  <si>
+    <t>WQRoute3</t>
   </si>
 </sst>
 </file>
@@ -442,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +509,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,16 +697,18 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
@@ -766,98 +800,98 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
+    </row>
+    <row r="3" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>36</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -871,54 +905,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -930,584 +964,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="45.77734375" customWidth="1"/>
-    <col min="7" max="7" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="31.77734375" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
-      </c>
       <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>86</v>
       </c>
       <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
       <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
         <v>86</v>
       </c>
       <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1520,77 +1554,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentSkillAssignmentNewData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSkillAssignmentNewData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579EF908-D72B-49F6-92C1-9AA456411378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,6 @@
     <sheet name="Invalid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
   <si>
     <t>Avaya Login ID</t>
   </si>
@@ -214,9 +219,6 @@
     <t>SMS Skills</t>
   </si>
   <si>
-    <t>AudioSkill-1 &lt;49051&gt;</t>
-  </si>
-  <si>
     <t>VideoSkill2 &lt;49018&gt;</t>
   </si>
   <si>
@@ -250,12 +252,6 @@
     <t>SmsSkill1 &lt;49019&gt;,SmsSkill2 &lt;49020&gt;</t>
   </si>
   <si>
-    <t>AudioSkill-1 &lt;49051&gt;,</t>
-  </si>
-  <si>
-    <t>FaxSkill-1 &lt;49012&gt;,</t>
-  </si>
-  <si>
     <t>ClearSearch</t>
   </si>
   <si>
@@ -274,18 +270,12 @@
     <t>BG</t>
   </si>
   <si>
-    <t>ChatbotAgentSkill &lt;49035&gt;</t>
-  </si>
-  <si>
     <t>EmailSkill8 &lt;49008&gt;</t>
   </si>
   <si>
     <t>VoiceSkill1 &lt;49000&gt;,VoiceSkill5&lt;49005&gt;</t>
   </si>
   <si>
-    <t>SmsSkill1 &lt;49019&gt;,</t>
-  </si>
-  <si>
     <t>Aravinda ET</t>
   </si>
   <si>
@@ -295,27 +285,6 @@
     <t>EveningGreeting</t>
   </si>
   <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50093</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50094</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50095</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50096</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50097</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50098</t>
-  </si>
-  <si>
-    <t>MarkJucker Berg - 88888,Palak Garg - 50099</t>
-  </si>
-  <si>
     <t>ProductQA</t>
   </si>
   <si>
@@ -328,32 +297,44 @@
     <t>X Y - 1111,G A- 1213</t>
   </si>
   <si>
-    <t>X Y - 1111,G A- 1214</t>
-  </si>
-  <si>
-    <t>X Y - 1111,G A- 1215</t>
-  </si>
-  <si>
-    <t>X Y - 1111,G A- 1216</t>
-  </si>
-  <si>
-    <t>X Y - 1111,G A- 1217</t>
-  </si>
-  <si>
-    <t>X Y - 1111,G A- 1218</t>
-  </si>
-  <si>
-    <t>X Y - 1111,G A- 1219</t>
-  </si>
-  <si>
     <t>WQRoute3</t>
+  </si>
+  <si>
+    <t>ChatBotAgentCM &lt;49035&gt;</t>
+  </si>
+  <si>
+    <t>Audio Chat1 &lt;1390301&gt;</t>
+  </si>
+  <si>
+    <t>CH_AsyncSkill1 &lt;49003&gt;</t>
+  </si>
+  <si>
+    <t>Audio Chat2 &lt;1390302&gt;</t>
+  </si>
+  <si>
+    <t>FaxSkill-1 &lt;49012&gt;,Audio Chat2 &lt;1390302&gt;</t>
+  </si>
+  <si>
+    <t>SmsSkill1 &lt;49019&gt;,smsskill4 &lt;1390345&gt;</t>
+  </si>
+  <si>
+    <t>Audio Chat1 &lt;1390301&gt;,Audio Chat2 &lt;1390302&gt;</t>
+  </si>
+  <si>
+    <t>FaxSkill-1 &lt;49012&gt;,FaxSkill2 &lt;1390111&gt;</t>
+  </si>
+  <si>
+    <t>SmsSkill1 &lt;49019&gt;,smsskill3 &lt;1390123&gt;</t>
+  </si>
+  <si>
+    <t>MarkJucker Berg - 88888,Chaithra Kanchan - 50099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +362,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -686,29 +673,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
+    <col min="1" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
@@ -800,7 +787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -817,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
@@ -847,7 +834,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>32</v>
@@ -862,7 +849,7 @@
         <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
@@ -889,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -900,24 +887,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -961,30 +948,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
     <col min="11" max="11" width="47" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1019,7 +1006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1033,13 +1020,13 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
         <v>50</v>
@@ -1054,7 +1041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1062,19 +1049,19 @@
         <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>50</v>
@@ -1089,7 +1076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1097,19 +1084,19 @@
         <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>50</v>
@@ -1124,7 +1111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1132,19 +1119,19 @@
         <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>50</v>
@@ -1159,7 +1146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1167,19 +1154,19 @@
         <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
         <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
       </c>
       <c r="H6" t="s">
         <v>50</v>
@@ -1194,7 +1181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1202,19 +1189,19 @@
         <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>50</v>
@@ -1229,7 +1216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1237,19 +1224,19 @@
         <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
@@ -1264,7 +1251,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1272,19 +1259,19 @@
         <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>50</v>
@@ -1299,9 +1286,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1313,13 +1300,13 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>50</v>
@@ -1334,27 +1321,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>50</v>
@@ -1371,25 +1358,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
         <v>50</v>
@@ -1406,25 +1393,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
         <v>50</v>
@@ -1439,27 +1426,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" t="s">
-        <v>76</v>
       </c>
       <c r="H14" t="s">
         <v>50</v>
@@ -1474,27 +1461,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
         <v>50</v>
@@ -1509,27 +1496,27 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
         <v>50</v>
@@ -1545,29 +1532,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,33 +1586,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/AgentSkillAssignmentNewData.xlsx
+++ b/ocms/src/test/resources/TestData/AgentSkillAssignmentNewData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579EF908-D72B-49F6-92C1-9AA456411378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605DD057-D4C4-4BB4-8B74-5E9C1DE584E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
   <si>
     <t>Avaya Login ID</t>
   </si>
@@ -291,27 +291,9 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Aravinda ET - 602,User25 MNS5- 12322121</t>
-  </si>
-  <si>
-    <t>X Y - 1111,G A- 1213</t>
-  </si>
-  <si>
     <t>WQRoute3</t>
   </si>
   <si>
-    <t>ChatBotAgentCM &lt;49035&gt;</t>
-  </si>
-  <si>
-    <t>Audio Chat1 &lt;1390301&gt;</t>
-  </si>
-  <si>
-    <t>CH_AsyncSkill1 &lt;49003&gt;</t>
-  </si>
-  <si>
-    <t>Audio Chat2 &lt;1390302&gt;</t>
-  </si>
-  <si>
     <t>FaxSkill-1 &lt;49012&gt;,Audio Chat2 &lt;1390302&gt;</t>
   </si>
   <si>
@@ -328,6 +310,21 @@
   </si>
   <si>
     <t>MarkJucker Berg - 88888,Chaithra Kanchan - 50099</t>
+  </si>
+  <si>
+    <t>ChatSkill11 &lt;49011&gt;</t>
+  </si>
+  <si>
+    <t>AudioSkill-1 &lt;49051&gt;</t>
+  </si>
+  <si>
+    <t>VideoSkill1 &lt;49017&gt;</t>
+  </si>
+  <si>
+    <t>X Y - 1111,G A - 1213</t>
+  </si>
+  <si>
+    <t>Aravinda ET - 602,Tester Web - 6189</t>
   </si>
 </sst>
 </file>
@@ -952,7 +949,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1020,7 @@
         <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>81</v>
@@ -1049,7 +1046,7 @@
         <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>31</v>
@@ -1058,7 +1055,7 @@
         <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>70</v>
@@ -1084,7 +1081,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>66</v>
@@ -1093,10 +1090,10 @@
         <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>50</v>
@@ -1119,7 +1116,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>45</v>
@@ -1128,7 +1125,7 @@
         <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -1163,10 +1160,10 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>50</v>
@@ -1198,7 +1195,7 @@
         <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
         <v>72</v>
@@ -1233,10 +1230,10 @@
         <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
         <v>50</v>
@@ -1268,7 +1265,7 @@
         <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -1303,7 +1300,7 @@
         <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>81</v>
@@ -1323,13 +1320,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -1338,7 +1335,7 @@
         <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
         <v>70</v>
@@ -1358,13 +1355,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>66</v>
@@ -1373,10 +1370,10 @@
         <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>50</v>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -1408,7 +1405,7 @@
         <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -1443,10 +1440,10 @@
         <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s">
         <v>50</v>
@@ -1463,7 +1460,7 @@
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -1478,7 +1475,7 @@
         <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
         <v>72</v>
@@ -1498,7 +1495,7 @@
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -1513,10 +1510,10 @@
         <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
         <v>50</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>75</v>
